--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,26 +587,26 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Return to home and land promptly</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7-12</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -687,51 +687,51 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Propeller rotating too fast Wind resistance affected</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -746,12 +746,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -762,21 +762,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -787,21 +787,21 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -812,26 +812,26 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16-19</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -871,12 +871,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -887,21 +887,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -912,21 +912,21 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -937,21 +937,21 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>16-19</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -962,21 +962,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -987,21 +987,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1012,21 +1012,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1037,46 +1037,46 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>replace the propeller on the beeping ESC</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>14-20</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1087,21 +1087,21 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1112,21 +1112,21 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>15-21</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1137,21 +1137,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Move away from sources of interference before attempting flight</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22-30</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1162,21 +1162,21 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1196,15 +1196,190 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>Compass abnormal</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2-14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>The ground or walls may contain metal</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15-21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Move away from sources of interference before attempting flight</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>22-30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2. Calibrate Compass Before Takeoff</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>31-35</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution:</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4-30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>32-35</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,26 +587,26 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast</t>
+          <t>Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Return to home and land promptly</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7-12</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>7-12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -687,51 +687,51 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -746,12 +746,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -762,21 +762,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -787,21 +787,21 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -812,26 +812,26 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>16-19</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -871,12 +871,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -887,21 +887,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -912,21 +912,21 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -937,21 +937,21 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>16-19</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -962,21 +962,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -987,21 +987,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1012,21 +1012,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1037,46 +1037,46 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>14-20</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1087,21 +1087,21 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1112,21 +1112,21 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>15-21</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1137,21 +1137,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>22-30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1162,21 +1162,21 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1196,190 +1196,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>32-35</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2-14</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>6</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>The ground or walls may contain metal</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>15-21</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>6</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Move away from sources of interference before attempting flight</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>22-30</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>6</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>31-35</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>6</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution:</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>6</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>4-30</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>6</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>32-35</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
         <is>
           <t>False</t>
         </is>
